--- a/data/income_statement/1digit/size/I_IS_MEDIUM.xlsx
+++ b/data/income_statement/1digit/size/I_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>I-Accommodation and food service activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>I-Accommodation and food service activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,665 +841,750 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>5215226.039980001</v>
+        <v>6489182.06727</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>6325776.324410001</v>
+        <v>7667511.22025</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>8255649.97597</v>
+        <v>9758084.95466</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>9141916.478859998</v>
+        <v>10900364.88423</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>11068540.80819</v>
+        <v>12921515.04641</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>13006023.3342</v>
+        <v>15253243.48157</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>14524577.20096</v>
+        <v>17016638.28829</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>14955001.08814</v>
+        <v>17663737.24821</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>19164261.59071</v>
+        <v>23131918.2788</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>27588895.69551</v>
+        <v>30925762.50909</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>32068671.95595</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>33874348.82439</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>23544184.521</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>4929671.27213</v>
+        <v>6119772.96825</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>5988495.725009999</v>
+        <v>7286540.731790001</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>7858975.980839999</v>
+        <v>9229452.686590001</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>8747540.275739999</v>
+        <v>10398745.80162</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>10506178.59117</v>
+        <v>12217944.06906</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>12460313.18005</v>
+        <v>14568366.35602</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>13859197.52099</v>
+        <v>16252365.77234</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>14290451.39469</v>
+        <v>16840517.63838</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>18301057.19049</v>
+        <v>22044595.17897</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>26398083.49612</v>
+        <v>27878332.65314</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>30377627.32952</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>32296797.43006</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>22316504.79</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>159283.45151</v>
+        <v>225937.216</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>177840.6572599999</v>
+        <v>230421.17695</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>190553.92132</v>
+        <v>311306.1738399999</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>166584.69835</v>
+        <v>244091.90757</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>307266.79201</v>
+        <v>407682.61902</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>215333.04749</v>
+        <v>319153.05741</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>220557.11444</v>
+        <v>321044.80729</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>161709.54833</v>
+        <v>241703.0253600001</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>274033.5786</v>
+        <v>392950.02044</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>443725.47275</v>
+        <v>521953.71189</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>550459.9050200001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>560941.57498</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>410924.711</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>126271.31634</v>
+        <v>143471.88302</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>159439.94214</v>
+        <v>150549.31151</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>206120.07381</v>
+        <v>217326.09423</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>227791.50477</v>
+        <v>257527.17504</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>255095.42501</v>
+        <v>295888.35833</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>330377.10666</v>
+        <v>365724.06814</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>444822.56553</v>
+        <v>443227.70866</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>502840.14512</v>
+        <v>581516.58447</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>589170.8216200001</v>
+        <v>694373.07939</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>747086.7266399999</v>
+        <v>2525476.14406</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>1140584.72141</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>1016609.81935</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>816755.02</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>29530.86832</v>
+        <v>55051.65372</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>36877.02501999999</v>
+        <v>54468.18972</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>51923.30452999999</v>
+        <v>67980.87938</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>67715.66673</v>
+        <v>86425.19410000001</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>72293.00896000001</v>
+        <v>94994.68276999998</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>75078.96096000001</v>
+        <v>120378.1719</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>94735.39347</v>
+        <v>152590.54491</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>115228.29937</v>
+        <v>194087.55739</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>215258.66943</v>
+        <v>302875.35619</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>291546.68439</v>
+        <v>2149432.3186</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>345754.86457</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>380368.17232</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>430547.748</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>17436.60533</v>
+        <v>35198.97916999999</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>21249.8487</v>
+        <v>30932.696</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>30491.21889</v>
+        <v>37893.23249</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>42827.17367000001</v>
+        <v>55680.60565</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>46491.29255000001</v>
+        <v>61450.24853</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>51162.96736000001</v>
+        <v>84447.36301999998</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>57107.07394</v>
+        <v>102116.67151</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>81656.00375</v>
+        <v>132670.46072</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>153352.78444</v>
+        <v>201101.59231</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>167791.24049</v>
+        <v>183143.4353</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>230392.64244</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>228125.51204</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>309622.225</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>7876.43141</v>
+        <v>12679.07447</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>11861.14089</v>
+        <v>17955.84684</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>19370.47511</v>
+        <v>26663.82792000001</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>21222.62602</v>
+        <v>26121.40896</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>21545.0903</v>
+        <v>27978.06262</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>18535.0926</v>
+        <v>28139.23173</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>29114.8735</v>
+        <v>40514.85886</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>23761.58371</v>
+        <v>48947.39550000001</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>53007.31668</v>
+        <v>86317.31526999999</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>103114.56778</v>
+        <v>1935529.448</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>92821.18881000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>127119.79153</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>93559.253</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>4217.83158</v>
+        <v>7173.60008</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>3766.03543</v>
+        <v>5579.64688</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>2061.61053</v>
+        <v>3423.81897</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>3665.86704</v>
+        <v>4623.17949</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>4256.626109999999</v>
+        <v>5566.371619999999</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>5380.900999999999</v>
+        <v>7791.577149999999</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>8513.446029999999</v>
+        <v>9959.014539999998</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>9810.71191</v>
+        <v>12469.70117</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>8898.568310000001</v>
+        <v>15456.44861</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>20640.87612</v>
+        <v>30759.4353</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>22541.03332</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>25122.86875000001</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>27366.27</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>5185695.17166</v>
+        <v>6434130.413550001</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>6288899.29939</v>
+        <v>7613043.030530001</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>8203726.67144</v>
+        <v>9690104.07528</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>9074200.812129999</v>
+        <v>10813939.69013</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>10996247.79923</v>
+        <v>12826520.36364</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>12930944.37324</v>
+        <v>15132865.30967</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>14429841.80749</v>
+        <v>16864047.74338</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>14839772.78877</v>
+        <v>17469649.69082</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>18949002.92128</v>
+        <v>22829042.92261</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>27297349.01112</v>
+        <v>28776330.19049</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>31722917.09138</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>33493980.65207</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>23113636.773</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>3892049.70646</v>
+        <v>4661150.77718</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>4790667.7611</v>
+        <v>5656033.30885</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>6069564.11655</v>
+        <v>6941682.43628</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>7007471.80839</v>
+        <v>8086088.90022</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>8515251.51887</v>
+        <v>9575826.92409</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>10046310.48138</v>
+        <v>11366390.25649</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>11422657.74874</v>
+        <v>13026557.30878</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>12415899.69986</v>
+        <v>14495989.35078</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>15273000.94147</v>
+        <v>17898291.63144</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>19813722.94653</v>
+        <v>20521549.58911</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>23549390.72209</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>24612435.90821</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>18963200.561</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>720460.0281500001</v>
+        <v>746935.7302400001</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>928991.4851</v>
+        <v>935152.29246</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>1178889.07641</v>
+        <v>1183365.2965</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>1365605.73529</v>
+        <v>1363052.38614</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>1696634.14477</v>
+        <v>1711177.17295</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>2282151.1145</v>
+        <v>2322146.20453</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>2663478.05024</v>
+        <v>2648562.02989</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>2954908.95582</v>
+        <v>2959183.67332</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>3701358.62364</v>
+        <v>3691741.08671</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>4383108.88084</v>
+        <v>4337012.65773</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>4875376.55886</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>4828070.320299999</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>4403467.309</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>365082.30617</v>
+        <v>366753.5363</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>468574.78265</v>
+        <v>470955.31188</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>588959.04796</v>
+        <v>584935.02665</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>667937.12978</v>
+        <v>673012.0367300001</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>713576.55753</v>
+        <v>770690.3754200001</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>982035.4978000001</v>
+        <v>993111.5205999999</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1241032.84502</v>
+        <v>1269649.42772</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1588029.03823</v>
+        <v>1569962.87002</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>2367037.85374</v>
+        <v>2376964.73508</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>1948838.5046</v>
+        <v>1942813.16821</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>2522583.98615</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>2526947.404180001</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>2795521.621</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>2798995.69834</v>
+        <v>3530283.87842</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>3376844.69186</v>
+        <v>4233853.35954</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>4287359.33539</v>
+        <v>5154834.663969999</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>4962958.825380001</v>
+        <v>6042145.28761</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>6043106.51433</v>
+        <v>7033047.649</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>6737988.570619999</v>
+        <v>7998428.625770001</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>7443641.94879</v>
+        <v>9051085.90497</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>7775508.49565</v>
+        <v>9862753.133749999</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>9118422.666520001</v>
+        <v>11694342.92514</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>13432375.91862</v>
+        <v>14178971.17206</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>15988563.02055</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>17094196.28903</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>11562192.806</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>7511.6738</v>
+        <v>17177.63222</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>16256.80149</v>
+        <v>16072.34497</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>14356.65679</v>
+        <v>18547.44916</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>10970.11794</v>
+        <v>7879.18974</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>61934.30224</v>
+        <v>60911.72672</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>44135.29845999999</v>
+        <v>52703.90559</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>74504.90469</v>
+        <v>57259.94620000001</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>97453.21016000002</v>
+        <v>104089.67369</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>86181.79757</v>
+        <v>135242.88451</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>49399.64247</v>
+        <v>62752.59110999999</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>162867.15653</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>163221.8947</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>202018.825</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>1293645.4652</v>
+        <v>1772979.63637</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>1498231.53829</v>
+        <v>1957009.72168</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>2134162.55489</v>
+        <v>2748421.639</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>2066729.00374</v>
+        <v>2727850.78991</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>2480996.28036</v>
+        <v>3250693.43955</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>2884633.89186</v>
+        <v>3766475.05318</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>3007184.05875</v>
+        <v>3837490.4346</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>2423873.08891</v>
+        <v>2973660.34004</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>3676001.97981</v>
+        <v>4930751.291170001</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>7483626.064590001</v>
+        <v>8254780.60138</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>8173526.369289999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>8881544.743859999</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>4150436.212</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>1014329.51305</v>
+        <v>1341374.07168</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>1191617.43907</v>
+        <v>1530133.80955</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>1532339.32802</v>
+        <v>1894976.42259</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>1707148.1689</v>
+        <v>2210926.93622</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>2033701.87578</v>
+        <v>2576091.33815</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>2495770.30911</v>
+        <v>3298783.38174</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>2716146.63079</v>
+        <v>3619243.537820001</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>2936284.48355</v>
+        <v>3927245.33239</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>3376111.76926</v>
+        <v>4296806.73629</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>4738553.916449999</v>
+        <v>5053620.995839999</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>5497501.9644</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>5912716.41882</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>5121624.928</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>533.2446900000001</v>
+        <v>18.88639</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>1935.56323</v>
+        <v>1894.36707</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>403.54836</v>
+        <v>471.71471</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>5432.17853</v>
+        <v>5432.455</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>1447.9676</v>
+        <v>2380.20173</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>1720.75742</v>
+        <v>1717.85132</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>582.91269</v>
+        <v>337.19133</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>2520.11986</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>1885.4141</v>
+        <v>1885.07343</v>
       </c>
       <c r="L21" s="48" t="n">
         <v>3329.20779</v>
@@ -1606,779 +1592,879 @@
       <c r="M21" s="48" t="n">
         <v>8972.62772</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>8471.509</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>174415.18267</v>
+        <v>209990.87508</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>201633.84669</v>
+        <v>234302.01062</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>268920.65365</v>
+        <v>332832.011</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>326292.85937</v>
+        <v>395850.03084</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>381530.5023800001</v>
+        <v>456542.79697</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>560695.66046</v>
+        <v>701767.1569200001</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>649448.1717599999</v>
+        <v>812682.35771</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>699046.74367</v>
+        <v>877261.6193800002</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>803915.98018</v>
+        <v>974239.59872</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>1039203.81163</v>
+        <v>1106185.48145</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>1184574.84147</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1279244.01624</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>1009504.207</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>839381.0856900001</v>
+        <v>1131364.31021</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>988048.02915</v>
+        <v>1293937.43186</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>1263015.12601</v>
+        <v>1561672.69688</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>1375423.131</v>
+        <v>1809644.45038</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>1650723.4058</v>
+        <v>2117168.33945</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>1933353.89123</v>
+        <v>2595298.3735</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>2066115.54634</v>
+        <v>2806223.98878</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>2234717.62002</v>
+        <v>3047463.59315</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>2570310.37498</v>
+        <v>3320682.06414</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>3696020.89703</v>
+        <v>3944106.3066</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>4303954.49521</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>4624499.77486</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>4103649.212</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>279315.95215</v>
+        <v>431605.56469</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>306614.09922</v>
+        <v>426875.91213</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>601823.2268700001</v>
+        <v>853445.2164099999</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>359580.83484</v>
+        <v>516923.8536900001</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>447294.40458</v>
+        <v>674602.1014</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>388863.5827499999</v>
+        <v>467691.67144</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>291037.42796</v>
+        <v>218246.89678</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-512411.39464</v>
+        <v>-953584.9923500001</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>299890.2105500001</v>
+        <v>633944.5548800001</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>2745072.14814</v>
+        <v>3201159.60554</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>2676024.40489</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>2968828.32504</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-971188.716</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>255057.98941</v>
+        <v>459206.41383</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>307663.64656</v>
+        <v>608986.7138500001</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>400404.76771</v>
+        <v>866900.7266599999</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>373068.96372</v>
+        <v>764329.40835</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>575252.44673</v>
+        <v>1055325.22347</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>616079.63899</v>
+        <v>1579294.3862</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>946969.9846900002</v>
+        <v>2210084.41049</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>745265.85051</v>
+        <v>1693497.98226</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>887904.5350199998</v>
+        <v>2626495.622539999</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>5102847.60384</v>
+        <v>6066524.94651</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>2743244.12079</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>3165643.41353</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>4915813.685</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>6161.18617</v>
+        <v>5331.96562</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>15038.49607</v>
+        <v>4223.81022</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>14130.18653</v>
+        <v>12875.53214</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>5910.2497</v>
+        <v>10680.56223</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>17777.8953</v>
+        <v>94955.62298999999</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>17054.67492</v>
+        <v>62540.09225</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>15740.49353</v>
+        <v>23284.47178</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>31507.20849</v>
+        <v>31101.32613</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>20036.92529</v>
+        <v>111339.71661</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>84421.89708</v>
+        <v>49155.91955999999</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>133341.64829</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>9274.575279999999</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>33118.185</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>389.79903</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>633.42322</v>
+        <v>1802.38651</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>2304.99653</v>
+        <v>11012.06359</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>2479.85224</v>
+        <v>8990.258450000001</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>945.325</v>
+        <v>10318.33707</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>4727.603440000001</v>
+        <v>50910.70072</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>1315.07234</v>
+        <v>68380.95462</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>1808.26584</v>
+        <v>8206.99879</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>2595.36042</v>
+        <v>5441.0982</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>10522.15773</v>
+        <v>15606.24512</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>39699.78764</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>40058.08126</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>51880.905</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>32885.42275</v>
+        <v>54119.94353999999</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>36235.67186</v>
+        <v>58111.26618</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>47275.07122</v>
+        <v>64993.77895</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>58608.93146000001</v>
+        <v>103309.1521</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>74625.9333</v>
+        <v>103328.31999</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>84990.89834</v>
+        <v>123890.73617</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>93092.84124999998</v>
+        <v>156376.45939</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>97090.38966</v>
+        <v>200698.3643</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>126907.36235</v>
+        <v>607907.55197</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>332008.1400000001</v>
+        <v>388080.75242</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>336646.4721799999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>461535.39903</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>420171.409</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>2267.19687</v>
+        <v>1611.26137</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>2771.36048</v>
+        <v>4282.21818</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>4982.825170000001</v>
+        <v>4377.29507</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>6189.23388</v>
+        <v>5199.35643</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>2759.29372</v>
+        <v>2356.95028</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>3370.99284</v>
+        <v>7954.85447</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>3270.96166</v>
+        <v>4406.15201</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>4686.060449999999</v>
+        <v>6472.84103</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>3191.458349999999</v>
+        <v>3488.838650000001</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>34797.94862</v>
+        <v>22775.93449</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>23099.75096</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>19239.30891</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>5171.573</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>1567.28061</v>
+        <v>2507.17075</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>1024.65351</v>
+        <v>2554.48698</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>1528.31632</v>
+        <v>4549.35672</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>1456.87923</v>
+        <v>3007.04217</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>4620.09609</v>
+        <v>9679.427679999999</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>1658.46264</v>
+        <v>9263.606239999999</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>3117.34759</v>
+        <v>7663.246099999999</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>7903.93243</v>
+        <v>14081.09054</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>14792.08922</v>
+        <v>24207.69238</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>17734.71039</v>
+        <v>48441.97346000001</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>21668.37107</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>25625.7794</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>15901.851</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>1266.55744</v>
+        <v>11639.73485</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>6424.308040000001</v>
+        <v>32089.73192999999</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>2897.39065</v>
+        <v>5799.18244</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>3364.534290000001</v>
+        <v>5010.76144</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>11977.40777</v>
+        <v>56658.57588</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>2170.33962</v>
+        <v>27699.23671</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>2798.29285</v>
+        <v>5348.22276</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>5824.43177</v>
+        <v>9830.560120000002</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>10841.71888</v>
+        <v>53175.99424000001</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>32155.57353999999</v>
+        <v>395381.50017</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>11618.93803</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>254362.3266</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>29259.462</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>142048.19379</v>
+        <v>277282.0810900001</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>172137.238</v>
+        <v>403489.9351600001</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>212157.35386</v>
+        <v>522695.84014</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>175366.46602</v>
+        <v>479330.44366</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>303131.04461</v>
+        <v>600229.28441</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>335142.82468</v>
+        <v>1048500.83297</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>560344.2248499999</v>
+        <v>1628978.68979</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>357405.82403</v>
+        <v>1114283.94481</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>468937.70284</v>
+        <v>1484868.12572</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>4113741.91847</v>
+        <v>4733747.39142</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>1628476.89128</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>1873969.11714</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>3942200.873</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>875.4223499999999</v>
+        <v>1277.43899</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>1301.37595</v>
+        <v>1469.78163</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>315.3502599999999</v>
+        <v>335.09408</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>1505.11543</v>
+        <v>69.22023</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>3252.96553</v>
+        <v>223.04365</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>1535.68853</v>
+        <v>258.66191</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>304.36616</v>
+        <v>361.39926</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>394.50813</v>
+        <v>240.90753</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>821.4005</v>
+        <v>946.16373</v>
       </c>
       <c r="L33" s="48" t="n">
         <v>897.1378100000001</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>7598.26377</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>7595.91537</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>2939.003</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>242.8145</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>94.35404000000001</v>
+        <v>69.44037</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>98.03130999999999</v>
+        <v>0.0033</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>201.71613</v>
+        <v>89.66764999999999</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>282.22884</v>
+        <v>51.59254</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>374.9721</v>
+        <v>374.972</v>
       </c>
       <c r="I34" s="48" t="n">
         <v>4.04553</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>542.15869</v>
+        <v>1530.63728</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>262.71672</v>
+        <v>95.30902999999999</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>776.78156</v>
+        <v>118.15603</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>556.0935599999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>462.09375</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>235.002</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>67354.1159</v>
+        <v>104804.20409</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>72002.76539</v>
+        <v>100893.65669</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>114715.24586</v>
+        <v>240262.58023</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>117985.98534</v>
+        <v>148642.94399</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>155880.25657</v>
+        <v>177524.06898</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>165053.18188</v>
+        <v>247900.69276</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>266982.33893</v>
+        <v>315280.76925</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>238103.07102</v>
+        <v>307051.31173</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>239517.80045</v>
+        <v>335025.13201</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>475791.33864</v>
+        <v>412319.93603</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>540537.9040099999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>473520.81679</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>414935.422</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>180501.69074</v>
+        <v>312079.12124</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>175432.89176</v>
+        <v>361504.13331</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>451252.6550800001</v>
+        <v>964185.3482699998</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>175385.08605</v>
+        <v>353614.88932</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>596765.31001</v>
+        <v>1447935.29743</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>412086.41783</v>
+        <v>1195451.20897</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>950598.1567199999</v>
+        <v>2840340.23592</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>758998.0896999999</v>
+        <v>2245195.92895</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>904845.86326</v>
+        <v>3034707.66192</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>6480321.1121</v>
+        <v>7115367.577149999</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>2511157.62248</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>2929732.99758</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>8112945.203</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>11779.96582</v>
+        <v>13003.5455</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>12876.93477</v>
+        <v>14814.15017</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>18722.18292</v>
+        <v>19100.09279</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>18124.48411</v>
+        <v>21496.1107</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>23308.92431</v>
+        <v>26810.45815</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>28557.51271</v>
+        <v>36875.01170999999</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>33597.39079999999</v>
+        <v>45505.64658</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>30757.82172999999</v>
+        <v>42736.33514</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>39731.03784</v>
+        <v>55952.1131</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>69353.28129000003</v>
+        <v>87127.55831000001</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>87021.75536</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>89184.57655000001</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>52028.308</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>14002.0438</v>
+        <v>16964.156</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>6191.645689999999</v>
+        <v>14433.30801</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>22033.55505</v>
+        <v>12616.61892</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>5720.261110000001</v>
+        <v>9080.11111</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>21426.83665</v>
+        <v>28994.18936</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>28241.93808</v>
+        <v>31303.26184</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>43864.96836</v>
+        <v>58269.82667</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>23031.69459</v>
+        <v>30550.81571</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>13195.2086</v>
+        <v>28844.55624</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>30844.91256</v>
+        <v>29670.39639</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>127652.13339</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>136479.35825</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>81458.399</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>1088.08237</v>
+        <v>450.07185</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>300.8645</v>
+        <v>6676.122850000001</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>15305.00041</v>
+        <v>15146.22934</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>2733.64661</v>
+        <v>9328.07768</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>5734.728300000001</v>
+        <v>15727.38048</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>466.48043</v>
+        <v>3948.05248</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>12227.42829</v>
+        <v>13601.88767</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>304.74571</v>
+        <v>381.26929</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>447.91024</v>
+        <v>519.00107</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>28706.45823</v>
+        <v>25399.36527</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>7668.625099999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>1094.96417</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>2441.366</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>135374.07587</v>
+        <v>261314.85345</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>144892.6083</v>
+        <v>307255.29321</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>335632.09204</v>
+        <v>871157.95456</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>125988.7683</v>
+        <v>284895.2585300001</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>505282.53416</v>
+        <v>1330301.63356</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>307978.60116</v>
+        <v>1064416.30464</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>785437.7071799999</v>
+        <v>2637995.889609999</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>649106.5937600002</v>
+        <v>2108617.77356</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>791363.4939700001</v>
+        <v>2536806.91012</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>6276274.87004</v>
+        <v>6861470.3168</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>2168483.51172</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>2589130.03154</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>7815183.281</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>531.14413</v>
+        <v>1284.90757</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>43.03608</v>
+        <v>62.33974</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>5438.36093</v>
+        <v>5468.756449999999</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>449.38998</v>
+        <v>444.46647</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>1534.82086</v>
+        <v>1416.82558</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>1130.62526</v>
+        <v>769.64403</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>610.44092</v>
+        <v>664.09334</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>2089.41289</v>
+        <v>161.58528</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>730.03849</v>
+        <v>1055.81707</v>
       </c>
       <c r="L41" s="48" t="n">
         <v>1690.21509</v>
@@ -2386,632 +2472,715 @@
       <c r="M41" s="48" t="n">
         <v>8361.837600000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>1440.206</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>4.33583</v>
+        <v>0.84474</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>7.000000000000001e-05</v>
+        <v>0</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>4.59507</v>
+        <v>0</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>6.345009999999999</v>
+        <v>0.0504</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>0.0948</v>
+        <v>0.09448999999999999</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>248.94453</v>
+        <v>0.05</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>46.95475999999999</v>
+        <v>46.95428999999999</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>0.00044</v>
+        <v>0</v>
       </c>
       <c r="L42" s="48" t="n">
-        <v>33.07433</v>
+        <v>33.07392</v>
       </c>
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>17726.37875</v>
+        <v>19061.58687</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>11123.46659</v>
+        <v>18262.07459</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>54121.46365999999</v>
+        <v>40695.69621</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>22363.94087</v>
+        <v>28370.86483</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>39471.12072000001</v>
+        <v>44684.7599</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>45711.16539</v>
+        <v>58138.83978</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>74611.27664</v>
+        <v>84302.84205000001</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>53660.86626</v>
+        <v>62701.19567999999</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>59378.17368</v>
+        <v>411529.26432</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>73418.30056</v>
+        <v>109976.65137</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>111969.75931</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>105482.22947</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>160393.643</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>163873.90429</v>
+        <v>315173.68343</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>159239.30095</v>
+        <v>299505.2367899999</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>260265.17301</v>
+        <v>459251.61055</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>262778.24762</v>
+        <v>476317.5638899999</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>374445.57583</v>
+        <v>910777.9760199999</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>474626.6231</v>
+        <v>851892.4779500001</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>718732.9811299999</v>
+        <v>1336620.13</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>801822.45892</v>
+        <v>1482580.2749</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>889115.1356000002</v>
+        <v>1815219.16525</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>2887870.965929999</v>
+        <v>3711780.97665</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>1943207.06951</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>2448158.67275</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>3632140.166</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>140265.03841</v>
+        <v>228974.29476</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>136535.57651</v>
+        <v>200870.29921</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>215108.26785</v>
+        <v>319615.14298</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>225523.6061</v>
+        <v>362551.00357</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>290618.2454</v>
+        <v>478662.57151</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>345959.54047</v>
+        <v>618156.12002</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>478268.5094999999</v>
+        <v>789387.1131600001</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>560032.00309</v>
+        <v>834773.55753</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>670735.5427500001</v>
+        <v>1161366.553</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>1649294.78038</v>
+        <v>2500694.54462</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>1382133.32763</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>1788274.25284</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>2085527.93</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>23608.86588</v>
+        <v>86199.38867</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>22703.72444</v>
+        <v>98634.93758</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>45156.90515999999</v>
+        <v>139636.46757</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>37254.64152</v>
+        <v>113766.56032</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>83827.33042999999</v>
+        <v>432115.40451</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>128667.08263</v>
+        <v>233736.35793</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>240464.47163</v>
+        <v>547233.0168400002</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>241790.45583</v>
+        <v>647806.71737</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>218379.59285</v>
+        <v>653852.61225</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>1238576.18555</v>
+        <v>1211086.43203</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>561073.74188</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>659884.4199099998</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>1546612.236</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>189998.34653</v>
+        <v>263559.17385</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>279605.5530699999</v>
+        <v>374853.2558800001</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>290710.16649</v>
+        <v>296908.98425</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>294486.46489</v>
+        <v>451320.8088300001</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>51335.96546999999</v>
+        <v>-628785.94858</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>118230.18081</v>
+        <v>-357.6292800000012</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-431323.7251999999</v>
+        <v>-1748629.05865</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-1327966.09275</v>
+        <v>-2987863.21394</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-606166.2532899999</v>
+        <v>-1589486.64975</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-1520272.32605</v>
+        <v>-1559464.00175</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>964903.8336899998</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>756580.0682399999</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-7800460.4</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>86736.82650999998</v>
+        <v>127265.87151</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>86053.48589</v>
+        <v>145872.52426</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>96365.67813999999</v>
+        <v>190986.61572</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>125928.69593</v>
+        <v>150387.02941</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>166848.70275</v>
+        <v>641162.1427199999</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>261450.40935</v>
+        <v>495301.35375</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>245984.45497</v>
+        <v>342280.0389100001</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>287563.74323</v>
+        <v>469499.294</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>324194.35298</v>
+        <v>611146.9800399999</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>547680.72</v>
+        <v>418002.39983</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>760348.5075399998</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>992761.5688100001</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>657163.0649999999</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>3833.03495</v>
+        <v>2493.57321</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>423.02725</v>
+        <v>977.98752</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>2896.75384</v>
+        <v>3478.47054</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>2966.235079999999</v>
+        <v>3843.94156</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>1363.76083</v>
+        <v>1654.82941</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>2486.80882</v>
+        <v>4070.73153</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>4335.180600000001</v>
+        <v>4072.90096</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>3251.94089</v>
+        <v>5600.008460000001</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>3155.63177</v>
+        <v>10041.70422</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>12194.3396</v>
+        <v>2861.007360000001</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>6952.28341</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>6850.75857</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>25964.846</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>82903.79156</v>
+        <v>124772.2983</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>85630.45864</v>
+        <v>144894.53674</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>93468.9243</v>
+        <v>187508.14518</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>122962.46085</v>
+        <v>146543.08785</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>165484.94192</v>
+        <v>639507.3133100001</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>258963.60053</v>
+        <v>491230.62222</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>241649.27437</v>
+        <v>338207.13795</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>284311.8023400001</v>
+        <v>463899.28554</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>321038.72121</v>
+        <v>601105.2758200001</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>535486.3804</v>
+        <v>415141.39247</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>753396.22413</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>985910.8102400001</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>631198.219</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>80104.81785000001</v>
+        <v>100607.06446</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>71366.10421999999</v>
+        <v>139827.68999</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>554480.40284</v>
+        <v>624181.98829</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>124813.88581</v>
+        <v>297647.2371</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>145361.3654</v>
+        <v>241994.6771</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>413989.09575</v>
+        <v>534984.80054</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>196275.65791</v>
+        <v>344706.62078</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>437345.44005</v>
+        <v>557740.1465800001</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>231521.50209</v>
+        <v>349444.2715</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>827416.90674</v>
+        <v>738400.33952</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>544652.4687999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>446777.69234</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>672827.177</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>4993.06513</v>
+        <v>7093.62904</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>5104.37011</v>
+        <v>7775.640219999999</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>7042.060810000001</v>
+        <v>8117.166969999999</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>11406.8316</v>
+        <v>13886.70381</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>11857.09993</v>
+        <v>24821.17599</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>14702.60073</v>
+        <v>16224.60293</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>9632.343600000002</v>
+        <v>14116.10015</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>25214.97726</v>
+        <v>30513.84866</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>13662.46019</v>
+        <v>30330.92541</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>34565.99031</v>
+        <v>33299.23215</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>45381.13738</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>49407.68945000001</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>114727.434</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>3568.18217</v>
+        <v>6635.11901</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>6220.228619999999</v>
+        <v>7941.145259999999</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>5707.157139999999</v>
+        <v>6928.08773</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>10379.16408</v>
+        <v>13127.02434</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>9039.473840000001</v>
+        <v>32987.0733</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>11236.02896</v>
+        <v>15539.68348</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>19651.54858</v>
+        <v>27335.14445</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>18144.51295</v>
+        <v>29730.4861</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>8403.289859999997</v>
+        <v>14142.8928</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>34221.89448</v>
+        <v>17093.57444</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>80413.28408</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>25125.01145</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>47338.916</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>71543.57055000002</v>
+        <v>86878.31641000001</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>60041.50549</v>
+        <v>124110.90451</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>541731.18489</v>
+        <v>609136.73359</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>103027.89013</v>
+        <v>270633.50895</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>124464.79163</v>
+        <v>184186.42781</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>388050.4660600001</v>
+        <v>503220.51413</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>166991.76573</v>
+        <v>303255.37618</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>393985.94984</v>
+        <v>497495.81182</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>209455.75204</v>
+        <v>304970.45329</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>758629.0219500001</v>
+        <v>688007.53293</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>418858.04734</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>372244.99144</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>510760.827</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>196630.35519</v>
+        <v>290217.9809</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>294292.93474</v>
+        <v>380898.0901500001</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-167404.55821</v>
+        <v>-136286.38832</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>295601.27501</v>
+        <v>304060.60114</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>72823.30282</v>
+        <v>-229618.4829599999</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-34308.50558999999</v>
+        <v>-40041.07607</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-381614.92814</v>
+        <v>-1751055.64052</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-1477747.78957</v>
+        <v>-3076104.06652</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-513493.4023999999</v>
+        <v>-1327783.94121</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-1800008.51279</v>
+        <v>-1879861.94144</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1180599.87243</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1302563.94471</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-7816124.512</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>55547.31857000001</v>
+        <v>71005.43823</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>74422.57707000001</v>
+        <v>95235.00126999999</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>99169.39968999999</v>
+        <v>116226.42206</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>98813.86562</v>
+        <v>117678.79531</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>111366.65119</v>
+        <v>122077.62174</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>128099.71731</v>
+        <v>145335.10883</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>126492.72239</v>
+        <v>129328.53148</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>89907.50975</v>
+        <v>89303.92592000001</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>123012.97586</v>
+        <v>126620.30458</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>278335.2249</v>
+        <v>263699.79115</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>361534.16564</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>377211.69197</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>120011.868</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>141083.03662</v>
+        <v>219212.54267</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>219870.35767</v>
+        <v>285663.08888</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-266573.9579</v>
+        <v>-252512.81038</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>196787.40939</v>
+        <v>186381.80583</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-38543.34837000001</v>
+        <v>-351696.1047</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-162408.2229</v>
+        <v>-185376.1849</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-508107.65053</v>
+        <v>-1880384.172</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-1567655.29932</v>
+        <v>-3165407.99244</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-636506.37826</v>
+        <v>-1454404.24579</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-2078343.73769</v>
+        <v>-2143561.73259</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>819065.7067900001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>925352.25274</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-7936136.38</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>1174</v>
+        <v>976</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>1364</v>
+        <v>1112</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>1585</v>
+        <v>1284</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1803</v>
+        <v>1449</v>
       </c>
       <c r="G59" s="35" t="n">
+        <v>1544</v>
+      </c>
+      <c r="H59" s="35" t="n">
+        <v>1754</v>
+      </c>
+      <c r="I59" s="35" t="n">
+        <v>1852</v>
+      </c>
+      <c r="J59" s="35" t="n">
         <v>1826</v>
       </c>
-      <c r="H59" s="35" t="n">
-        <v>2093</v>
-      </c>
-      <c r="I59" s="35" t="n">
-        <v>2240</v>
-      </c>
-      <c r="J59" s="35" t="n">
-        <v>2317</v>
-      </c>
       <c r="K59" s="35" t="n">
-        <v>2489</v>
+        <v>1914</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>2013</v>
+        <v>1788</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>2060</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1824</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>